--- a/Doc/2414_TesteurDeSprinklerplanif.xlsx
+++ b/Doc/2414_TesteurDeSprinklerplanif.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\DES_Securite\SPB_v7\Doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\DES_Securite\2414_SPB7_DOC\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9864B04F-0B85-4EDD-B88B-02F2D763044F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ABF4E63-998B-4FD3-9E1D-0453C3CD1330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="17385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -119,7 +119,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,8 +153,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -203,6 +210,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEE0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="46">
     <border>
@@ -791,7 +804,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="90"/>
@@ -983,6 +996,16 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1012,9 +1035,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1325,8 +1345,8 @@
   </sheetPr>
   <dimension ref="A1:AI40"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="E1" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="X3" sqref="X3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1338,10 +1358,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="70"/>
+      <c r="B1" s="74"/>
       <c r="C1" s="6">
         <v>1</v>
       </c>
@@ -1443,10 +1463,10 @@
       </c>
     </row>
     <row r="2" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="72"/>
+      <c r="B2" s="76"/>
       <c r="C2" s="21">
         <v>47</v>
       </c>
@@ -1548,10 +1568,10 @@
       </c>
     </row>
     <row r="3" spans="1:35" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="73" t="s">
+      <c r="A3" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="74"/>
+      <c r="B3" s="78"/>
       <c r="C3" s="1">
         <v>45611</v>
       </c>
@@ -1653,7 +1673,7 @@
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="70" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -1698,7 +1718,7 @@
       <c r="AI4" s="47"/>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A5" s="66"/>
+      <c r="A5" s="70"/>
       <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
@@ -1737,7 +1757,7 @@
       <c r="AI5" s="48"/>
     </row>
     <row r="6" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="67"/>
+      <c r="A6" s="71"/>
       <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
@@ -1776,7 +1796,7 @@
       <c r="AI6" s="49"/>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A7" s="65" t="s">
+      <c r="A7" s="69" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -1821,7 +1841,7 @@
       <c r="AI7" s="47"/>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A8" s="66"/>
+      <c r="A8" s="70"/>
       <c r="B8" s="4" t="s">
         <v>8</v>
       </c>
@@ -1860,7 +1880,7 @@
       <c r="AI8" s="50"/>
     </row>
     <row r="9" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="67"/>
+      <c r="A9" s="71"/>
       <c r="B9" s="4" t="s">
         <v>9</v>
       </c>
@@ -1876,8 +1896,8 @@
       <c r="L9" s="62"/>
       <c r="M9" s="62"/>
       <c r="N9" s="63"/>
-      <c r="O9" s="22"/>
-      <c r="P9" s="22"/>
+      <c r="O9" s="66"/>
+      <c r="P9" s="66"/>
       <c r="Q9" s="36"/>
       <c r="R9" s="22"/>
       <c r="S9" s="22"/>
@@ -1899,7 +1919,7 @@
       <c r="AI9" s="49"/>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A10" s="65" t="s">
+      <c r="A10" s="69" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -1942,7 +1962,7 @@
       <c r="AI10" s="47"/>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A11" s="66"/>
+      <c r="A11" s="70"/>
       <c r="B11" s="4" t="s">
         <v>8</v>
       </c>
@@ -1981,7 +2001,7 @@
       <c r="AI11" s="50"/>
     </row>
     <row r="12" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="67"/>
+      <c r="A12" s="71"/>
       <c r="B12" s="4" t="s">
         <v>9</v>
       </c>
@@ -1997,16 +2017,16 @@
       <c r="L12" s="22"/>
       <c r="M12" s="22"/>
       <c r="N12" s="22"/>
-      <c r="O12" s="22"/>
-      <c r="P12" s="22"/>
+      <c r="O12" s="67"/>
+      <c r="P12" s="67"/>
       <c r="Q12" s="36"/>
-      <c r="R12" s="22"/>
-      <c r="S12" s="22"/>
-      <c r="T12" s="22"/>
-      <c r="U12" s="22"/>
-      <c r="V12" s="22"/>
-      <c r="W12" s="22"/>
-      <c r="X12" s="22"/>
+      <c r="R12" s="67"/>
+      <c r="S12" s="67"/>
+      <c r="T12" s="67"/>
+      <c r="U12" s="67"/>
+      <c r="V12" s="67"/>
+      <c r="W12" s="67"/>
+      <c r="X12" s="67"/>
       <c r="Y12" s="36"/>
       <c r="Z12" s="42"/>
       <c r="AA12" s="22"/>
@@ -2020,7 +2040,7 @@
       <c r="AI12" s="49"/>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A13" s="65" t="s">
+      <c r="A13" s="69" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -2050,12 +2070,12 @@
       <c r="X13" s="7"/>
       <c r="Y13" s="34"/>
       <c r="Z13" s="40"/>
-      <c r="AA13" s="7"/>
-      <c r="AB13" s="7"/>
-      <c r="AC13" s="7"/>
-      <c r="AD13" s="8"/>
+      <c r="AA13" s="68"/>
+      <c r="AB13" s="68"/>
+      <c r="AC13" s="68"/>
+      <c r="AD13" s="68"/>
       <c r="AE13" s="34"/>
-      <c r="AF13" s="7"/>
+      <c r="AF13" s="68"/>
       <c r="AG13" s="7"/>
       <c r="AH13" s="7"/>
       <c r="AI13" s="47" t="s">
@@ -2063,7 +2083,7 @@
       </c>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A14" s="66"/>
+      <c r="A14" s="70"/>
       <c r="B14" s="4" t="s">
         <v>8</v>
       </c>
@@ -2102,7 +2122,7 @@
       <c r="AI14" s="50"/>
     </row>
     <row r="15" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="67"/>
+      <c r="A15" s="71"/>
       <c r="B15" s="4" t="s">
         <v>9</v>
       </c>
@@ -2141,7 +2161,7 @@
       <c r="AI15" s="49"/>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A16" s="65" t="s">
+      <c r="A16" s="69" t="s">
         <v>13</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -2171,18 +2191,18 @@
       <c r="X16" s="7"/>
       <c r="Y16" s="34"/>
       <c r="Z16" s="34"/>
-      <c r="AA16" s="7"/>
-      <c r="AB16" s="7"/>
-      <c r="AC16" s="7"/>
-      <c r="AD16" s="7"/>
+      <c r="AA16" s="68"/>
+      <c r="AB16" s="68"/>
+      <c r="AC16" s="68"/>
+      <c r="AD16" s="68"/>
       <c r="AE16" s="34"/>
-      <c r="AF16" s="7"/>
+      <c r="AF16" s="68"/>
       <c r="AG16" s="7"/>
       <c r="AH16" s="7"/>
       <c r="AI16" s="47"/>
     </row>
     <row r="17" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A17" s="66"/>
+      <c r="A17" s="70"/>
       <c r="B17" s="4" t="s">
         <v>8</v>
       </c>
@@ -2221,7 +2241,7 @@
       <c r="AI17" s="50"/>
     </row>
     <row r="18" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="67"/>
+      <c r="A18" s="71"/>
       <c r="B18" s="4" t="s">
         <v>9</v>
       </c>
@@ -2260,7 +2280,7 @@
       <c r="AI18" s="49"/>
     </row>
     <row r="19" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A19" s="65" t="s">
+      <c r="A19" s="69" t="s">
         <v>14</v>
       </c>
       <c r="B19" s="4" t="s">
@@ -2290,18 +2310,18 @@
       <c r="X19" s="7"/>
       <c r="Y19" s="34"/>
       <c r="Z19" s="40"/>
-      <c r="AA19" s="7"/>
-      <c r="AB19" s="7"/>
-      <c r="AC19" s="7"/>
-      <c r="AD19" s="7"/>
+      <c r="AA19" s="68"/>
+      <c r="AB19" s="68"/>
+      <c r="AC19" s="68"/>
+      <c r="AD19" s="68"/>
       <c r="AE19" s="34"/>
-      <c r="AF19" s="7"/>
+      <c r="AF19" s="68"/>
       <c r="AG19" s="7"/>
       <c r="AH19" s="7"/>
       <c r="AI19" s="47"/>
     </row>
     <row r="20" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A20" s="66"/>
+      <c r="A20" s="70"/>
       <c r="B20" s="4" t="s">
         <v>8</v>
       </c>
@@ -2340,7 +2360,7 @@
       <c r="AI20" s="50"/>
     </row>
     <row r="21" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="67"/>
+      <c r="A21" s="71"/>
       <c r="B21" s="4" t="s">
         <v>9</v>
       </c>
@@ -2379,7 +2399,7 @@
       <c r="AI21" s="49"/>
     </row>
     <row r="22" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A22" s="65" t="s">
+      <c r="A22" s="69" t="s">
         <v>15</v>
       </c>
       <c r="B22" s="4" t="s">
@@ -2419,8 +2439,8 @@
       <c r="AH22" s="7"/>
       <c r="AI22" s="47"/>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A23" s="66"/>
+    <row r="23" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="70"/>
       <c r="B23" s="4" t="s">
         <v>8</v>
       </c>
@@ -2459,7 +2479,7 @@
       <c r="AI23" s="50"/>
     </row>
     <row r="24" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="67"/>
+      <c r="A24" s="71"/>
       <c r="B24" s="4" t="s">
         <v>9</v>
       </c>
@@ -2493,12 +2513,12 @@
       <c r="AD24" s="22"/>
       <c r="AE24" s="36"/>
       <c r="AF24" s="22"/>
-      <c r="AG24" s="22"/>
-      <c r="AH24" s="22"/>
+      <c r="AG24" s="67"/>
+      <c r="AH24" s="7"/>
       <c r="AI24" s="49"/>
     </row>
     <row r="25" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A25" s="65" t="s">
+      <c r="A25" s="69" t="s">
         <v>16</v>
       </c>
       <c r="B25" s="4" t="s">
@@ -2539,7 +2559,7 @@
       <c r="AI25" s="47"/>
     </row>
     <row r="26" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A26" s="66"/>
+      <c r="A26" s="70"/>
       <c r="B26" s="4" t="s">
         <v>8</v>
       </c>
@@ -2578,7 +2598,7 @@
       <c r="AI26" s="50"/>
     </row>
     <row r="27" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="67"/>
+      <c r="A27" s="71"/>
       <c r="B27" s="4" t="s">
         <v>9</v>
       </c>
@@ -2617,7 +2637,7 @@
       <c r="AI27" s="49"/>
     </row>
     <row r="28" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A28" s="65" t="s">
+      <c r="A28" s="69" t="s">
         <v>17</v>
       </c>
       <c r="B28" s="4" t="s">
@@ -2662,7 +2682,7 @@
       <c r="AI28" s="47"/>
     </row>
     <row r="29" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A29" s="66"/>
+      <c r="A29" s="70"/>
       <c r="B29" s="4" t="s">
         <v>8</v>
       </c>
@@ -2701,7 +2721,7 @@
       <c r="AI29" s="50"/>
     </row>
     <row r="30" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="67"/>
+      <c r="A30" s="71"/>
       <c r="B30" s="4" t="s">
         <v>9</v>
       </c>
@@ -2709,7 +2729,7 @@
       <c r="D30" s="22"/>
       <c r="E30" s="22"/>
       <c r="F30" s="22"/>
-      <c r="G30" s="75"/>
+      <c r="G30" s="65"/>
       <c r="H30" s="22"/>
       <c r="I30" s="36"/>
       <c r="J30" s="42"/>
@@ -2740,7 +2760,7 @@
       <c r="AI30" s="49"/>
     </row>
     <row r="31" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A31" s="65" t="s">
+      <c r="A31" s="69" t="s">
         <v>18</v>
       </c>
       <c r="B31" s="4" t="s">
@@ -2781,7 +2801,7 @@
       <c r="AI31" s="48"/>
     </row>
     <row r="32" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A32" s="66"/>
+      <c r="A32" s="70"/>
       <c r="B32" s="4" t="s">
         <v>8</v>
       </c>
@@ -2820,7 +2840,7 @@
       <c r="AI32" s="51"/>
     </row>
     <row r="33" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="68"/>
+      <c r="A33" s="72"/>
       <c r="B33" s="5" t="s">
         <v>9</v>
       </c>
